--- a/biology/Botanique/David_M._Spooner/David_M._Spooner.xlsx
+++ b/biology/Botanique/David_M._Spooner/David_M._Spooner.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">David Michael Spooner, né le 1er novembre 1949 et mort le 7 juin 2022[1], est un botaniste et taxonomiste américain, professeur à l'université du Wisconsin.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">David Michael Spooner, né le 1er novembre 1949 et mort le 7 juin 2022, est un botaniste et taxonomiste américain, professeur à l'université du Wisconsin.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Activités</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il a consacré ses recherches aux limites et aux relations phylogénétiques entre les espèces  sauvages et cultivées de pommes de terre (section Petota du genre Solanum) et de  tomates (section Lycopersicon du genre Solanum).
 Il utilise pour cela des données provenant de la morphologie comparée, des analyses de marqueurs moléculaires (AFLP et RFLP) et de séquences d'ADN, tant de gènes nucléaires que chloroplastiques. Il a réalisé des expéditions de collecte aux États-Unis, au Mexique, en Amérique centrale et en Amérique du Sud. Il est en outre chargé de l'administration de l'herbier de la collection de pommes de terre de Sturgeon Bay (Wisconsin). Il a suivi des études à l'université de Miami de 1967 à 1971, puis obtenu une maîtrise de botanique à l'université de l'Ohio, sous la direction de R.M. Lloyd et enfin un doctorat dans la même université en 1987 sous la tutelle du professeur T.F. Stuessy.
@@ -543,7 +557,9 @@
           <t>Liste de publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Spooner, D.M. 1982, Wetlands in Teays-age valleys in extreme southeastern Ohio: Formation and flora. pp. 89–99 In: B. McDonald (ed.). Proceedings of symposium on wetlands of the unglaciated Appalachian region, Morgantown, West Virginia, May 26-28, 1982.
